--- a/biology/Médecine/Tirage_(signe_clinique)/Tirage_(signe_clinique).xlsx
+++ b/biology/Médecine/Tirage_(signe_clinique)/Tirage_(signe_clinique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En médecine, le tirage est un phénomène dans lequel les tissus mous de la cage thoracique sont « aspirés » vers l'intérieur de celle-ci lors de l'inspiration. On l’observe chez les patients atteints d'une pathologie respiratoire ; c’est un signe d'augmentation importante du travail respiratoire. Il s'explique par les fortes pressions négatives que produit un patient qui respire contre de fortes résistances. Le tirage a une valeur localisatrice du siège de l'obstruction : sus-sternal, intercostal, sous-sternal[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En médecine, le tirage est un phénomène dans lequel les tissus mous de la cage thoracique sont « aspirés » vers l'intérieur de celle-ci lors de l'inspiration. On l’observe chez les patients atteints d'une pathologie respiratoire ; c’est un signe d'augmentation importante du travail respiratoire. Il s'explique par les fortes pressions négatives que produit un patient qui respire contre de fortes résistances. Le tirage a une valeur localisatrice du siège de l'obstruction : sus-sternal, intercostal, sous-sternal.
 On peut l'observer :
 dans les espaces intercostaux,
 au-dessus des clavicules,
